--- a/HTML tags and Info.xlsx
+++ b/HTML tags and Info.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\HTML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\316891027\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>h.p</author>
+    <author>Shrivatsa (CWM-NR) Hosabettu</author>
   </authors>
   <commentList>
     <comment ref="B13" authorId="0" shapeId="0">
@@ -53,12 +54,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="B22" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>RGB value between 0-255, rgb(0,0,0) -Black,rgb(255,255,255) - white;#000000- Black, #FFFFFF- White</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>HTML Attributes</t>
   </si>
@@ -163,13 +177,163 @@
   </si>
   <si>
     <t>HTML Styles</t>
+  </si>
+  <si>
+    <t>&lt;tagname style="property:value;"&gt;</t>
+  </si>
+  <si>
+    <t>property is a CSS property and value is a CSS value</t>
+  </si>
+  <si>
+    <t>background-color</t>
+  </si>
+  <si>
+    <t>defines the background color of the html element</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>font-family</t>
+  </si>
+  <si>
+    <t>defines font-family of HTML element</t>
+  </si>
+  <si>
+    <t>font-size</t>
+  </si>
+  <si>
+    <t>defines font size of HTML element</t>
+  </si>
+  <si>
+    <t>text-align</t>
+  </si>
+  <si>
+    <t>defines horizontal text alignment of HTML element</t>
+  </si>
+  <si>
+    <t>HTML Formatting</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>defines bold text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt; </t>
+  </si>
+  <si>
+    <t>Defines Important text</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;</t>
+  </si>
+  <si>
+    <t>italic text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;em&gt; </t>
+  </si>
+  <si>
+    <t>emphasize text</t>
+  </si>
+  <si>
+    <t>&lt;mark&gt;</t>
+  </si>
+  <si>
+    <t>Highlight or marked text</t>
+  </si>
+  <si>
+    <t>&lt;small&gt;</t>
+  </si>
+  <si>
+    <t>small text</t>
+  </si>
+  <si>
+    <t>&lt;del&gt;</t>
+  </si>
+  <si>
+    <t>strikeout or delete text</t>
+  </si>
+  <si>
+    <t>&lt;ins&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inserted text </t>
+  </si>
+  <si>
+    <t>&lt;sub&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sup&gt;</t>
+  </si>
+  <si>
+    <t>subscript text</t>
+  </si>
+  <si>
+    <t>superscript text</t>
+  </si>
+  <si>
+    <t>Quotations and Citations</t>
+  </si>
+  <si>
+    <t>&lt;q&gt;</t>
+  </si>
+  <si>
+    <t>For small quotations; inserted quotations between the element</t>
+  </si>
+  <si>
+    <t>defines abbrevations or acronym; useful information for browser, transalation systems and search engines.</t>
+  </si>
+  <si>
+    <t>&lt;address&gt;</t>
+  </si>
+  <si>
+    <t>Contact information of  a document or an article;displayed in Italic;adds line breaks before and after the element</t>
+  </si>
+  <si>
+    <t>&lt;cite&gt;</t>
+  </si>
+  <si>
+    <t>Defines title of the work;displayed in Italic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;bdo dir="rtl"&gt;   </t>
+  </si>
+  <si>
+    <t>bi-directional override; used to override the current text direction.; rtl and ltr for dir</t>
+  </si>
+  <si>
+    <t>&lt;blockquote cite="webaddress"&gt;</t>
+  </si>
+  <si>
+    <t>Section quoted from another source; usually indent &lt;blockquote&gt; element; cite is for the other source or webaddress;</t>
+  </si>
+  <si>
+    <t>&lt;abbr title="abbrevations goes here"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- Comment goes here--&gt;</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Commets; not displayed in browser</t>
+  </si>
+  <si>
+    <t>defines html text color; Colors can be sepcified using name,RGB value, HEX value; HTML supports 140 standard color names</t>
+  </si>
+  <si>
+    <t>Inline CSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +359,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -524,9 +694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -681,36 +853,516 @@
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HTML tags and Info.xlsx
+++ b/HTML tags and Info.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\316891027\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.p\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>HTML Attributes</t>
   </si>
@@ -327,13 +327,232 @@
   </si>
   <si>
     <t>Inline CSS</t>
+  </si>
+  <si>
+    <t>&lt;style&gt;   &lt;/style&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal CSS define for a single HTML page; defines in the &lt;head&gt; section of HTML; </t>
+  </si>
+  <si>
+    <t>External CSS  &lt;link rel="stylesheet" href="css file name"&gt;</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">defines border around the html element; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">border: n px type color; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>border : 1px solid blue;</t>
+    </r>
+  </si>
+  <si>
+    <t>padding</t>
+  </si>
+  <si>
+    <t>defines padding(space) between text and the border</t>
+  </si>
+  <si>
+    <t>margin</t>
+  </si>
+  <si>
+    <t>defines a margin (space) outside the border</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id = "  "</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to define a specific style for one special element; define the id number in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hash </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag in the css;</t>
+    </r>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Defined for many HTML sheets; change the look of the entire website; add link in the &lt;head&gt; section; can be a full path URL</t>
+  </si>
+  <si>
+    <t>links to a style sheet located in the folder or the web page; defines in the &lt;head&gt;</t>
+  </si>
+  <si>
+    <t>&lt;link rel="stylesheet" href="path or URL"&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>defines style for a special type of element; add a class attribute to that element; called as element.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in css</t>
+    </r>
+  </si>
+  <si>
+    <t>HTML Links</t>
+  </si>
+  <si>
+    <t>&lt;a href="url"&gt; link text&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Defined with &lt;a&gt; tag; Links are to navigate from one page to another; href sepcifies destination address; link text is the visible part;</t>
+  </si>
+  <si>
+    <t>Local link</t>
+  </si>
+  <si>
+    <t>absoulte link</t>
+  </si>
+  <si>
+    <t>has the full address and link to a different website</t>
+  </si>
+  <si>
+    <t>link to the same website; doesn't have the http://www….</t>
+  </si>
+  <si>
+    <t>default link properties</t>
+  </si>
+  <si>
+    <t>unvisited link underlined and blue; visited link underlined and purple; active link underlined and red;</t>
+  </si>
+  <si>
+    <t>HTML Links - Target attributes</t>
+  </si>
+  <si>
+    <t>_blank</t>
+  </si>
+  <si>
+    <t>Opens the linked document in new window or tab</t>
+  </si>
+  <si>
+    <t>_self</t>
+  </si>
+  <si>
+    <t>Opens the linked document in the same window or tab as it was clicked(default)</t>
+  </si>
+  <si>
+    <t>_parent</t>
+  </si>
+  <si>
+    <t>Opens the linked document in the parernt frame</t>
+  </si>
+  <si>
+    <t>_top</t>
+  </si>
+  <si>
+    <t>Opens the linked document in the full body of the window</t>
+  </si>
+  <si>
+    <t>framename</t>
+  </si>
+  <si>
+    <t>Opens the linked document in the named frame</t>
+  </si>
+  <si>
+    <t>&lt;target=" values"</t>
+  </si>
+  <si>
+    <t>Specifies where to open the linked document based on the below values</t>
+  </si>
+  <si>
+    <t>Image as link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +584,22 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -696,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,95 +1289,173 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="A66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>

--- a/HTML tags and Info.xlsx
+++ b/HTML tags and Info.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.p\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
   <authors>
     <author>h.p</author>
     <author>Shrivatsa (CWM-NR) Hosabettu</author>
+    <author>adm</author>
   </authors>
   <commentList>
     <comment ref="B13" authorId="0" shapeId="0">
@@ -67,12 +68,63 @@
         </r>
       </text>
     </comment>
+    <comment ref="B28" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>adm:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Can be defined as below
+line-height: 15px
+line-height : 1.5em</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>adm:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+text-decoration: underline;
+text-decoration: none to remove the underline from link</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>HTML Attributes</t>
   </si>
@@ -547,12 +599,36 @@
   <si>
     <t>Image as link</t>
   </si>
+  <si>
+    <t>font-weight</t>
+  </si>
+  <si>
+    <t>Defines for the bold</t>
+  </si>
+  <si>
+    <t>font-style</t>
+  </si>
+  <si>
+    <t>for the italic</t>
+  </si>
+  <si>
+    <t>line-height</t>
+  </si>
+  <si>
+    <t>distance between the lines</t>
+  </si>
+  <si>
+    <t>text-decoration</t>
+  </si>
+  <si>
+    <t>for defining underline</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,6 +676,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -929,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,342 +1225,358 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="3"/>
+      <c r="A26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="3"/>
+      <c r="A37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="A41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="3"/>
+      <c r="A44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="A48" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B60" s="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
@@ -1676,6 +1781,22 @@
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
